--- a/doc/02_外部設計書/02_DB定義書_B4.xlsx
+++ b/doc/02_外部設計書/02_DB定義書_B4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/matsuda-nanase-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CEA5B35-19CB-47D2-94BF-138C7485C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61EC02A-B94D-4AA3-B5D4-9D1956F21250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22368" windowHeight="12012" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22368" windowHeight="12012" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,22 @@
     <sheet name="weights" sheetId="16" r:id="rId3"/>
     <sheet name="target_weights" sheetId="17" r:id="rId4"/>
     <sheet name="exercises" sheetId="6" r:id="rId5"/>
-    <sheet name="incomes" sheetId="18" r:id="rId6"/>
-    <sheet name="target_savings" sheetId="19" r:id="rId7"/>
-    <sheet name="fixed_types" sheetId="20" r:id="rId8"/>
-    <sheet name="costs" sheetId="11" r:id="rId9"/>
-    <sheet name="task_types" sheetId="21" r:id="rId10"/>
-    <sheet name="tasks" sheetId="10" r:id="rId11"/>
-    <sheet name="results" sheetId="9" r:id="rId12"/>
-    <sheet name="status" sheetId="5" r:id="rId13"/>
-    <sheet name="special_abilities" sheetId="12" r:id="rId14"/>
-    <sheet name="possessions" sheetId="14" r:id="rId15"/>
-    <sheet name="access" sheetId="22" r:id="rId16"/>
+    <sheet name="momentums" sheetId="31" r:id="rId6"/>
+    <sheet name="disease_list" sheetId="29" r:id="rId7"/>
+    <sheet name="incomes" sheetId="18" r:id="rId8"/>
+    <sheet name="target_savings" sheetId="19" r:id="rId9"/>
+    <sheet name="current_savings" sheetId="26" r:id="rId10"/>
+    <sheet name="amount_useds" sheetId="28" r:id="rId11"/>
+    <sheet name="fixed_types" sheetId="20" r:id="rId12"/>
+    <sheet name="costs" sheetId="11" r:id="rId13"/>
+    <sheet name="task_types" sheetId="21" r:id="rId14"/>
+    <sheet name="task_results" sheetId="30" r:id="rId15"/>
+    <sheet name="tasks" sheetId="10" r:id="rId16"/>
+    <sheet name="results" sheetId="9" r:id="rId17"/>
+    <sheet name="status" sheetId="5" r:id="rId18"/>
+    <sheet name="special_abilities" sheetId="12" r:id="rId19"/>
+    <sheet name="possessions" sheetId="14" r:id="rId20"/>
+    <sheet name="access" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="187">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -182,6 +187,21 @@
     <t>運動強度の種類</t>
   </si>
   <si>
+    <t>運動量</t>
+  </si>
+  <si>
+    <t>momentums</t>
+  </si>
+  <si>
+    <t>ユーザの運動量を記録</t>
+  </si>
+  <si>
+    <t>病気リスト</t>
+  </si>
+  <si>
+    <t>disease_list</t>
+  </si>
+  <si>
     <t>収入</t>
   </si>
   <si>
@@ -194,6 +214,18 @@
     <t>ｔarget_savings</t>
   </si>
   <si>
+    <t>現在貯金額</t>
+  </si>
+  <si>
+    <t>current_savings</t>
+  </si>
+  <si>
+    <t>使用金額</t>
+  </si>
+  <si>
+    <t>amount_useds</t>
+  </si>
+  <si>
     <t>固定費の種類</t>
   </si>
   <si>
@@ -221,19 +253,31 @@
     <t>ユーザ個人のタスク</t>
   </si>
   <si>
+    <t>タスク実施結果</t>
+  </si>
+  <si>
+    <t>task_results</t>
+  </si>
+  <si>
+    <t>タスクをどのくらいの時間で達成したか</t>
+  </si>
+  <si>
     <t>実行結果</t>
   </si>
   <si>
     <t>ｒesults</t>
   </si>
   <si>
-    <t>sessionスコープ 1日ごとに更新される情報</t>
+    <t>sessionスコープ 　1日ごとに更新される情報</t>
   </si>
   <si>
     <t>ステータス</t>
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>ユーザの時間管理、貯金、体力、貢献力、修正力、継続力などの数値</t>
   </si>
   <si>
     <t>特殊能力</t>
@@ -382,6 +426,12 @@
     <t>address varchar (100),</t>
   </si>
   <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>ｂirth_day</t>
+  </si>
+  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -455,6 +505,33 @@
     <t>varcher</t>
   </si>
   <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>病気のリスト</t>
+  </si>
+  <si>
+    <t>病気名</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>disease_money</t>
+  </si>
+  <si>
+    <t>基準確率</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>病気の確率を出す際に使う</t>
+  </si>
+  <si>
     <t>手取り</t>
   </si>
   <si>
@@ -476,12 +553,33 @@
     <t>saving_period</t>
   </si>
   <si>
+    <t>最新</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>達成後、最新の目標を更新（Tにする）</t>
+  </si>
+  <si>
+    <t>current_saving</t>
+  </si>
+  <si>
+    <t>amount_used</t>
+  </si>
+  <si>
     <t>費目</t>
   </si>
   <si>
     <t>fixed</t>
   </si>
   <si>
+    <t>固定費名</t>
+  </si>
+  <si>
     <t>費目id</t>
   </si>
   <si>
@@ -497,12 +595,6 @@
     <t>原田拓十</t>
   </si>
   <si>
-    <t>使っているものにboolean型</t>
-  </si>
-  <si>
-    <t>created_atで最新のもの</t>
-  </si>
-  <si>
     <t>デフォルト値</t>
   </si>
   <si>
@@ -518,6 +610,12 @@
     <t>task_id</t>
   </si>
   <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>タスクの実際の実行結果。この結果が、設定タスク時間を過ぎていたら、実行結果で更新。</t>
+  </si>
+  <si>
     <t>所要時間</t>
   </si>
   <si>
@@ -530,7 +628,7 @@
     <t>show</t>
   </si>
   <si>
-    <t>boolean</t>
+    <t>タスクが終了したら、色を暗くする</t>
   </si>
   <si>
     <t>results</t>
@@ -557,18 +655,6 @@
     <t>exercise_results</t>
   </si>
   <si>
-    <t>運動量</t>
-  </si>
-  <si>
-    <t>momentum</t>
-  </si>
-  <si>
-    <t>使用金額</t>
-  </si>
-  <si>
-    <t>amount_spent</t>
-  </si>
-  <si>
     <t>能力の種類</t>
   </si>
   <si>
@@ -581,10 +667,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>最新</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>更新時にTにする</t>
   </si>
   <si>
     <t>特殊能力名</t>
@@ -603,6 +686,9 @@
   </si>
   <si>
     <t>judge_max</t>
+  </si>
+  <si>
+    <t>これにより、特殊能力を分類する。</t>
   </si>
   <si>
     <t>特殊能力ID</t>
@@ -797,17 +883,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -822,6 +897,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -918,13 +1006,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1237,10 +1325,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1389,23 +1477,25 @@
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="13.5">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1417,10 +1507,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1432,10 +1522,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -1446,11 +1536,11 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>34</v>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -1461,146 +1551,180 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>36</v>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" ht="13.5">
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" ht="13.5">
       <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" ht="13.5">
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" ht="13.5">
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
+      <c r="C21" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="13.5">
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
+      <c r="C22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="13.5">
       <c r="B23" s="3">
         <v>16</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="13.5">
       <c r="B24" s="3">
         <v>17</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="13.5">
       <c r="B25" s="3">
         <v>18</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="13.5">
       <c r="B26" s="3">
         <v>19</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="13.5">
       <c r="B27" s="3">
         <v>20</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="13.5">
       <c r="B28" s="3">
@@ -1721,7 +1845,7 @@
     </row>
     <row r="41" spans="2:6" ht="13.5">
       <c r="B41" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1730,7 +1854,7 @@
     </row>
     <row r="42" spans="2:6" ht="13.5">
       <c r="B42" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1739,14 +1863,59 @@
     </row>
     <row r="43" spans="2:6" ht="13.5">
       <c r="B43" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" ht="13.5"/>
+    <row r="44" spans="2:6" ht="13.5">
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" ht="13.5">
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" ht="13.5">
+      <c r="B46" s="3">
+        <v>39</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" ht="13.5">
+      <c r="B47" s="3">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" ht="13.5">
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" ht="13.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1755,11 +1924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD8961A-2E27-49BB-A6C2-E198D632C335}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477035FB-BB06-4B7D-A960-13E7E05B4432}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1777,7 +1946,7 @@
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1788,10 +1957,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1802,15 +1971,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1819,25 +1988,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="8" spans="1:12">
-      <c r="D8" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -1850,88 +2016,96 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table task_types (</v>
+        <v>create table current_savings (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="27">
         <v>100</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -1941,78 +2115,97 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="B12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>92</v>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="L14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2021,11 +2214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937A09DF-8BE0-4633-A8BF-BE2D56E4F189}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8255610A-F9B4-46E5-8A2F-04C9EEA9C257}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2043,7 +2236,7 @@
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2054,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -2068,15 +2261,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2085,10 +2278,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2096,7 +2289,11 @@
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="D8" s="22"/>
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -2109,239 +2306,192 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table tasks (</v>
+        <v>create table amount_useds (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="27">
         <v>100</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>user_id varchar (100) auto_increment not null default 　,</v>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>task_id int ,</v>
-      </c>
+      <c r="B12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>time int ,</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
-        <v>92</v>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2351,11 +2501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42CE9F-9487-4027-AD2D-64DF7A0F38E0}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BEF465-83AF-4236-B730-9463DAD3230E}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2373,6 +2523,1127 @@
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table fixed_types (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB2E187-4CD0-442C-8E67-0E7B3CC29F62}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table costs (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD8961A-2E27-49BB-A6C2-E198D632C335}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table task_types (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7EE37F-C058-4763-8856-B297D2E13EDA}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table tasks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>task_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="40.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937A09DF-8BE0-4633-A8BF-BE2D56E4F189}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
     <row r="2" spans="1:12" ht="18.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -2384,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
@@ -2398,37 +3669,35 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45455</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75">
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="16" t="s">
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -2441,22 +3710,356 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>152</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table tasks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>task_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>time int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42CE9F-9487-4027-AD2D-64DF7A0F38E0}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2471,35 +4074,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2507,35 +4110,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_id varchar (100) primary key auto_increment not null default 　,</v>
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27">
@@ -2543,20 +4146,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L12" t="e">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(F12&lt;&gt;"","("&amp;F12&amp;")","")&amp;IF(#REF!&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2568,13 +4171,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2592,13 +4195,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2606,134 +4209,86 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="8"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>exercise_results int ,</v>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="8"/>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(F16&lt;&gt;""," primary key","")&amp;IF(G16&lt;&gt;""," auto_increment","")&amp;IF(H16&lt;&gt;""," not null","")&amp;IF(I16&lt;&gt;""," default "&amp;I16,"")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="L19" t="s">
-        <v>93</v>
+      <c r="B16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2742,12 +4297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1B024D-1171-4987-8B2C-0E14BA1D31B4}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2795,10 +4350,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2807,10 +4362,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2819,7 +4374,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2833,22 +4388,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2863,35 +4418,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2899,31 +4454,31 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2935,13 +4490,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2961,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2985,20 +4540,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -3009,35 +4566,35 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3045,35 +4602,35 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3082,12 +4639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52C7867-A210-4324-91CE-55EC11A8B58B}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3135,10 +4692,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -3147,10 +4704,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3159,7 +4716,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="G7" s="13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3173,22 +4730,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>14</v>
@@ -3203,35 +4760,35 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3239,13 +4796,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -3253,7 +4810,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
@@ -3267,20 +4824,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(J11&lt;&gt;""," default "&amp;J11,"")&amp;IF(C9&lt;&gt;"",",","")</f>
@@ -3292,55 +4849,57 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9">
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3348,35 +4907,35 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3385,12 +4944,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F895AB-9C30-48A9-BE3B-8F30AA63F9A0}">
-  <dimension ref="A1:L15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ACDE9C-CC7B-4AB8-99CE-02FED5C0799B}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3408,6 +4967,403 @@
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="11">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="11">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="11">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F895AB-9C30-48A9-BE3B-8F30AA63F9A0}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -3438,10 +5394,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -3450,10 +5406,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3462,7 +5418,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3476,22 +5432,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -3506,35 +5462,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3542,31 +5498,31 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3578,13 +5534,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3598,35 +5554,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3634,40 +5590,40 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3676,11 +5632,299 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579651F6-5F46-425E-A014-D25ED5508B24}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table access (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="27">
+        <v>100</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD700475-068F-4D40-BAD2-BBD8B085543D}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3724,15 +5968,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45455</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -3741,10 +5985,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3753,8 +5997,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -3767,29 +6013,29 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table access (</v>
+        <v>create table weights (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3797,67 +6043,65 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3869,57 +6113,55 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3927,35 +6169,40 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="L15" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3964,12 +6211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ACDE9C-CC7B-4AB8-99CE-02FED5C0799B}">
-  <dimension ref="A1:L17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7D5FD-38DD-4197-A2A3-A47A33F19F32}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3987,7 +6234,7 @@
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4001,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -4012,43 +6259,39 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5">
-        <v>45456</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -4061,277 +6304,221 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table ｔarget_weights (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="27">
         <v>100</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id varchar (100) auto_increment not null default 　,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="11">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
       <c r="L12" t="e">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="27">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="11">
-        <v>100</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>67</v>
+      <c r="B13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
+        <v>exercise_period date ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="B14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>82</v>
+      <c r="E14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="20">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="18">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" t="s">
-        <v>93</v>
+      <c r="B15" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4340,12 +6527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD700475-068F-4D40-BAD2-BBD8B085543D}">
-  <dimension ref="A1:L19"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593F5E13-3721-4EE1-B3E1-7EF93C8C2C14}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4373,11 +6560,11 @@
       <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -4388,15 +6575,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45456</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -4405,10 +6592,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -4417,10 +6604,8 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -4433,99 +6618,85 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table weights (</v>
+        <v>create table exercises (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>mets float  not null default 1,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4533,55 +6704,63 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>exercise_name varcher (20) not null,</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4589,44 +6768,41 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="29"/>
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4634,329 +6810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7D5FD-38DD-4197-A2A3-A47A33F19F32}">
-  <dimension ref="A1:L15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4F243-7DA3-47B3-82D0-519E1546B1B4}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="G8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ｔarget_weights (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="27">
-        <v>100</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
-        <v>exercise_period date ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593F5E13-3721-4EE1-B3E1-7EF93C8C2C14}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4984,11 +6843,11 @@
       <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -4999,15 +6858,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5016,10 +6875,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5027,9 +6886,11 @@
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="G8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -5042,190 +6903,192 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table exercises (</v>
+        <v>create table momentums (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mets float  not null default 1,</v>
+      <c r="B11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="27">
+        <v>100</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>exercise_name varcher (20) not null,</v>
-      </c>
+      <c r="B12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="L15" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5234,12 +7097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58426E6-FACA-4A86-A97F-3B5100148958}">
-  <dimension ref="A1:L14"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F456C8F-3159-4777-92CF-2CFEC5F91E08}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5267,11 +7130,11 @@
       <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -5287,10 +7150,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5299,10 +7162,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5310,11 +7173,9 @@
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -5327,192 +7188,212 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table incomes (</v>
+        <v>create table disease_list (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>69</v>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="27">
-        <v>100</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="B11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>disease varcher  not null default 1,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>disease_money int (20) not null,</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
-        <v>88</v>
+      <c r="B13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
-        <v>92</v>
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="L16" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5521,12 +7402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23620929-0149-44C3-9509-0EB2616FEDE3}">
-  <dimension ref="A1:L16"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58426E6-FACA-4A86-A97F-3B5100148958}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5554,7 +7435,7 @@
       <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5569,15 +7450,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>45454</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5586,10 +7467,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5598,8 +7479,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>57</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -5612,57 +7495,65 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table target_savings (</v>
+        <v>create table incomes (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5670,29 +7561,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5703,127 +7594,93 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27">
+      <c r="B12" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
+      <c r="E13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C8&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">saving_period date </v>
+      <c r="J13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>87</v>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="L16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5832,12 +7689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BEF465-83AF-4236-B730-9463DAD3230E}">
-  <dimension ref="A1:L13"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23620929-0149-44C3-9509-0EB2616FEDE3}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5869,7 +7726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -5884,32 +7741,32 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75">
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="16" t="s">
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>57</v>
+      <c r="G8" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5923,463 +7780,240 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table fixed_types (</v>
+        <v>create table target_savings (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>id int  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="27">
         <v>100</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB2E187-4CD0-442C-8E67-0E7B3CC29F62}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75">
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table costs (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="27">
-        <v>100</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (100) auto_increment not null default 　,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
+        <v>saving_period date ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
-        <v>88</v>
+      <c r="B14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13" t="s">
-        <v>92</v>
+      <c r="B15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6397,6 +8031,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="57959670f370b0918e37c66dce896f05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c437e7777be8eb7caa4910741b755581" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -6576,23 +8219,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78084ED-CC39-486A-9667-2FE413EBFDD8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA49B77-445D-4369-8B64-1696EE4F326C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905A5463-CD65-4552-9E4A-9D4C8A5A2777}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905A5463-CD65-4552-9E4A-9D4C8A5A2777}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA49B77-445D-4369-8B64-1696EE4F326C}"/>
 </file>
--- a/doc/02_外部設計書/02_DB定義書_B4.xlsx
+++ b/doc/02_外部設計書/02_DB定義書_B4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27823"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/matsuda-nanase-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61EC02A-B94D-4AA3-B5D4-9D1956F21250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7ED8CC-97E3-4C79-96B5-A304CF1501F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22368" windowHeight="12012" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22368" windowHeight="12012" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="7" r:id="rId2"/>
-    <sheet name="weights" sheetId="16" r:id="rId3"/>
-    <sheet name="target_weights" sheetId="17" r:id="rId4"/>
+    <sheet name="target_weights" sheetId="17" r:id="rId3"/>
+    <sheet name="weights" sheetId="16" r:id="rId4"/>
     <sheet name="exercises" sheetId="6" r:id="rId5"/>
     <sheet name="momentums" sheetId="31" r:id="rId6"/>
     <sheet name="disease_list" sheetId="29" r:id="rId7"/>
@@ -27,13 +27,14 @@
     <sheet name="fixed_types" sheetId="20" r:id="rId12"/>
     <sheet name="costs" sheetId="11" r:id="rId13"/>
     <sheet name="task_types" sheetId="21" r:id="rId14"/>
-    <sheet name="task_results" sheetId="30" r:id="rId15"/>
-    <sheet name="tasks" sheetId="10" r:id="rId16"/>
+    <sheet name="tasks" sheetId="10" r:id="rId15"/>
+    <sheet name="task_results" sheetId="30" r:id="rId16"/>
     <sheet name="results" sheetId="9" r:id="rId17"/>
     <sheet name="status" sheetId="5" r:id="rId18"/>
     <sheet name="special_abilities" sheetId="12" r:id="rId19"/>
     <sheet name="possessions" sheetId="14" r:id="rId20"/>
     <sheet name="access" sheetId="22" r:id="rId21"/>
+    <sheet name="purpose" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="216">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -156,7 +157,6 @@
   </si>
   <si>
     <t>users</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テーブル</t>
@@ -175,7 +175,7 @@
     <t>目標体重</t>
   </si>
   <si>
-    <t>ｔarget_weights</t>
+    <t>target_weights</t>
   </si>
   <si>
     <t>運動</t>
@@ -211,7 +211,7 @@
     <t>目標貯金</t>
   </si>
   <si>
-    <t>ｔarget_savings</t>
+    <t>target_savings</t>
   </si>
   <si>
     <t>現在貯金額</t>
@@ -265,7 +265,7 @@
     <t>実行結果</t>
   </si>
   <si>
-    <t>ｒesults</t>
+    <t>results</t>
   </si>
   <si>
     <t>sessionスコープ 　1日ごとに更新される情報</t>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>最終ログイン</t>
+  </si>
+  <si>
+    <t>目的地</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>テーブル</t>
   </si>
   <si>
     <t>テーブル論理名</t>
@@ -330,9 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>※AIはAuto Incrementの略です。</t>
   </si>
   <si>
@@ -369,13 +375,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>=create table "&amp;C5&amp;" ("</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>int</t>
+    <t>integer</t>
   </si>
   <si>
     <t>　</t>
@@ -423,22 +432,16 @@
     <t>address</t>
   </si>
   <si>
-    <t>address varchar (100),</t>
-  </si>
-  <si>
     <t>生年月日</t>
   </si>
   <si>
-    <t>ｂirth_day</t>
+    <t>birth_day</t>
   </si>
   <si>
     <t>作成日時</t>
   </si>
   <si>
     <t>created_at</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>CURRENT_TIMESTAMP</t>
@@ -466,30 +469,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>target_weight</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>運動目標期間</t>
+  </si>
+  <si>
+    <t>exercise_period</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>例、1か月、現在6/13なら、7/13が格納</t>
+  </si>
+  <si>
+    <t>最新</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>達成後、最新の目標を更新（Tにする）</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>weights</t>
   </si>
   <si>
     <t>現在体重</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>ｔarget_weight</t>
-  </si>
-  <si>
-    <t>運動目標期間</t>
-  </si>
-  <si>
-    <t>exercise_period</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>例、1か月、現在6/13なら、7/13が格納</t>
-  </si>
-  <si>
     <t>運動強度</t>
   </si>
   <si>
@@ -538,7 +556,7 @@
     <t>income</t>
   </si>
   <si>
-    <t>target_savings</t>
+    <t>CURRENT_DATE</t>
   </si>
   <si>
     <t>目標貯蓄</t>
@@ -547,24 +565,18 @@
     <t>ｔarget_saving</t>
   </si>
   <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
     <t>貯蓄目標期間</t>
   </si>
   <si>
     <t>saving_period</t>
   </si>
   <si>
-    <t>最新</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>達成後、最新の目標を更新（Tにする）</t>
-  </si>
-  <si>
     <t>current_saving</t>
   </si>
   <si>
@@ -610,30 +622,30 @@
     <t>task_id</t>
   </si>
   <si>
+    <t>所要時間</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>タスクが終了したら、色を暗くする</t>
+  </si>
+  <si>
+    <t>task_result</t>
+  </si>
+  <si>
     <t>execution</t>
   </si>
   <si>
     <t>タスクの実際の実行結果。この結果が、設定タスク時間を過ぎていたら、実行結果で更新。</t>
   </si>
   <si>
-    <t>所要時間</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>表示</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>タスクが終了したら、色を暗くする</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>時間結果</t>
   </si>
   <si>
@@ -697,14 +709,89 @@
     <t>ability_id</t>
   </si>
   <si>
-    <t>UPDATEのときにTrueになる.</t>
+    <t>チーム名</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>システム名</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>テーブル論理名</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>テーブル物理名</t>
+  </si>
+  <si>
+    <t>更新日</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>create table purpose (</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>user_id varchar (100) auto_increment not null default 　,</t>
+  </si>
+  <si>
+    <t>到着</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrival </t>
+  </si>
+  <si>
+    <t>arrival  varchar (10),</t>
+  </si>
+  <si>
+    <t>出発</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>destination varchar (100),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,8 +841,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,8 +870,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -912,13 +1020,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,6 +1147,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,19 +1503,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.149999999999999">
@@ -1547,7 +1725,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="13.5">
+    <row r="17" spans="2:13" ht="13.5">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1562,7 +1740,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="13.5">
+    <row r="18" spans="2:13" ht="13.5">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1577,7 +1755,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="13.5">
+    <row r="19" spans="2:13" ht="13.5">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1592,7 +1770,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="13.5">
+    <row r="20" spans="2:13" ht="13.5">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1607,7 +1785,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="13.5">
+    <row r="21" spans="2:13" ht="13.5">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1624,7 +1802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="13.5">
+    <row r="22" spans="2:13" ht="13.5">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1641,7 +1819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="13.5">
+    <row r="23" spans="2:13" ht="13.5">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1658,7 +1836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.5">
+    <row r="24" spans="2:13" ht="13.5">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1675,7 +1853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13.5">
+    <row r="25" spans="2:13" ht="13.5">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1692,7 +1870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.5">
+    <row r="26" spans="2:13" ht="13.5">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1709,7 +1887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="13.5">
+    <row r="27" spans="2:13" ht="13.5">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1726,16 +1904,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="13.5">
-      <c r="B28" s="3">
+    <row r="28" spans="2:13" ht="13.5">
+      <c r="B28" s="9">
         <v>21</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" ht="13.5">
+      <c r="C28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.5">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1744,7 +1936,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="13.5">
+    <row r="30" spans="2:13" ht="13.5">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1753,7 +1945,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5">
+    <row r="31" spans="2:13" ht="13.5">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1762,7 +1954,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="13.5">
+    <row r="32" spans="2:13" ht="13.5">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1928,19 +2120,19 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -1976,7 +2168,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>35</v>
@@ -1988,7 +2180,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>36</v>
@@ -2000,7 +2192,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -2016,22 +2208,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2046,35 +2238,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2082,33 +2274,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2119,10 +2311,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -2130,42 +2322,45 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="L12" s="24"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C8&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">current_saving integer </v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2173,35 +2368,35 @@
         <v>5</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -2218,19 +2413,19 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -2266,7 +2461,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>37</v>
@@ -2278,7 +2473,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -2290,7 +2485,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -2306,22 +2501,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2336,35 +2531,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2372,33 +2567,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2409,10 +2604,10 @@
         <v>37</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -2420,42 +2615,45 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="L12" s="24"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C8&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">amount_used integer </v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2463,35 +2661,35 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2505,19 +2703,19 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L9" sqref="L9:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -2530,10 +2728,10 @@
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2547,13 +2745,13 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="35">
         <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>39</v>
@@ -2565,7 +2763,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>40</v>
@@ -2577,7 +2775,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2591,22 +2789,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2621,35 +2819,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2657,13 +2855,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2673,7 +2871,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>fixed varchar (100)</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2681,35 +2883,35 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2717,35 +2919,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2758,20 +2960,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB2E187-4CD0-442C-8E67-0E7B3CC29F62}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -2784,10 +2986,10 @@
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2801,13 +3003,13 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="35">
         <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>41</v>
@@ -2819,7 +3021,7 @@
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="B5" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>42</v>
@@ -2831,7 +3033,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2845,22 +3047,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -2875,35 +3077,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2911,29 +3113,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2945,33 +3147,41 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E12" s="11">
+        <v>100</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C8&lt;&gt;"",",","")</f>
+        <v>fixed_id varchar (100) not null</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -2979,41 +3189,45 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="29"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
+        <v>fixed_money integer ,</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3021,35 +3235,35 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3063,19 +3277,19 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="L9" sqref="L9:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -3092,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75">
@@ -3111,7 +3325,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>43</v>
@@ -3123,7 +3337,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -3147,22 +3361,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -3177,35 +3391,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3213,13 +3427,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -3229,9 +3443,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="8"/>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>task varchar (100)</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3239,35 +3453,35 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3275,40 +3489,40 @@
         <v>4</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="L14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3318,29 +3532,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7EE37F-C058-4763-8856-B297D2E13EDA}">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937A09DF-8BE0-4633-A8BF-BE2D56E4F189}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="18.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -3351,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -3370,9 +3584,11 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3380,7 +3596,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>46</v>
@@ -3404,22 +3620,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -3434,35 +3650,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3470,29 +3686,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -3504,13 +3720,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3520,99 +3736,129 @@
       <c r="J12" s="8"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>task_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="40.5">
-      <c r="A13" s="3"/>
+        <v>task_id integer ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
+        <v>162</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="8" t="s">
-        <v>158</v>
+      <c r="J13" s="8"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>time integer ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>show boolean ,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="C15" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>106</v>
+      <c r="D15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>107</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3622,29 +3868,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937A09DF-8BE0-4633-A8BF-BE2D56E4F189}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7EE37F-C058-4763-8856-B297D2E13EDA}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L9" sqref="L9:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -3655,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -3674,11 +3920,9 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>45</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3686,10 +3930,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3710,29 +3954,29 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table tasks (</v>
+        <v>create table task_result (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3740,35 +3984,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3776,29 +4020,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -3810,13 +4054,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3826,125 +4070,103 @@
       <c r="J12" s="8"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>task_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
+        <v>task_id integer ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="40.5">
+      <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>79</v>
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>time int ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>execution integer ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>162</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="29" t="s">
-        <v>163</v>
+        <v>120</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>102</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3957,20 +4179,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC42CE9F-9487-4027-AD2D-64DF7A0F38E0}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4006,7 +4228,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>51</v>
@@ -4018,10 +4240,10 @@
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="B5" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>9</v>
@@ -4030,7 +4252,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4044,22 +4266,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -4074,35 +4296,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4110,35 +4332,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L14" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27">
@@ -4146,24 +4368,24 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(F12&lt;&gt;"","("&amp;F12&amp;")","")&amp;IF(#REF!&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>171</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>time_results integer ,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4171,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4187,7 +4409,7 @@
       <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>budget_results int ,</v>
+        <v>budget_results integer ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4195,13 +4417,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4209,9 +4431,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="8"/>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>exercise_results integer ,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4219,35 +4441,35 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4255,40 +4477,40 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4301,20 +4523,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1B024D-1171-4987-8B2C-0E14BA1D31B4}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4350,7 +4572,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>54</v>
@@ -4362,7 +4584,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
@@ -4374,7 +4596,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4388,22 +4610,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -4418,35 +4640,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4454,35 +4676,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_id varchar (100) primary key auto_increment not null default 　,</v>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4490,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4516,13 +4736,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4532,7 +4752,7 @@
       <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>value int ,</v>
+        <v>value integer ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4540,13 +4760,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4554,11 +4774,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>180</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>now boolean ,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4566,35 +4786,35 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4602,35 +4822,35 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4644,19 +4864,19 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L8" sqref="L8:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4692,7 +4912,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>57</v>
@@ -4704,7 +4924,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>58</v>
@@ -4716,7 +4936,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="G7" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4730,22 +4950,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>14</v>
@@ -4760,35 +4980,35 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4796,13 +5016,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -4810,13 +5030,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ability varchar (100) not null,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4824,24 +5044,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(J11&lt;&gt;""," default "&amp;J11,"")&amp;IF(C9&lt;&gt;"",",","")</f>
-        <v>color int  default 1＝赤、２＝青,</v>
+        <f t="shared" si="0"/>
+        <v>color integer ,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4849,13 +5069,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4863,7 +5083,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>judge_max integer ,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4871,35 +5095,35 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4907,35 +5131,35 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4948,20 +5172,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ACDE9C-CC7B-4AB8-99CE-02FED5C0799B}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -4997,10 +5221,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5011,10 +5235,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5025,7 +5249,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5041,29 +5265,28 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+      <c r="L9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5071,35 +5294,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5107,29 +5330,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5141,33 +5364,33 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="E12" s="11">
         <v>32</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>93</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C8&lt;&gt;"",",","")</f>
+        <v>password varchar (32) primary key auto_increment not null</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5175,31 +5398,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" s="11">
         <v>100</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L12:L15" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>user_name varchar (100) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5207,34 +5434,35 @@
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" s="11">
         <v>100</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>address varchar (100) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5242,13 +5470,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5256,42 +5484,43 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="L15" s="13"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>birth_day integer ,</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5299,40 +5528,38 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="L18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5346,19 +5573,19 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L9" sqref="L9:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -5394,7 +5621,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>60</v>
@@ -5406,7 +5633,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>61</v>
@@ -5418,7 +5645,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5432,22 +5659,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -5462,35 +5689,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5498,35 +5725,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5534,13 +5761,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5548,41 +5775,45 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ability_id integer ,</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5590,40 +5821,40 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5634,22 +5865,22 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579651F6-5F46-425E-A014-D25ED5508B24}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -5685,7 +5916,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>63</v>
@@ -5697,7 +5928,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
@@ -5709,7 +5940,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5723,22 +5954,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -5753,35 +5984,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5789,129 +6020,107 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>186</v>
+      <c r="B12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="25" t="s">
+      <c r="B13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>102</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5920,24 +6129,689 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD700475-068F-4D40-BAD2-BBD8B085543D}">
-  <dimension ref="A1:L15"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCD70E-4B31-43C1-9BFB-1C8639227A51}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75">
+      <c r="A1" s="37"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75">
+      <c r="A2" s="13"/>
+      <c r="B2" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
+      <c r="A3" s="13"/>
+      <c r="B3" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="45">
+        <v>45454</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="13"/>
+      <c r="B4" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="13"/>
+      <c r="B5" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="54">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="10">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="11">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" ht="54">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="10">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="10">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7D5FD-38DD-4197-A2A3-A47A33F19F32}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -5973,10 +6847,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5985,10 +6859,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5996,11 +6870,11 @@
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -6013,99 +6887,99 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table weights (</v>
+        <v>create table target_weights (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="C10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
+      <c r="D10" s="25" t="s">
         <v>82</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="27">
+        <v>100</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="I11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6113,10 +6987,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>111</v>
@@ -6127,81 +7001,132 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">target_weight double </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>103</v>
+      <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
+        <v>exercise_period date ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(F14&lt;&gt;""," primary key","")&amp;IF(G14&lt;&gt;""," auto_increment","")&amp;IF(H14&lt;&gt;""," not null","")&amp;IF(I14&lt;&gt;""," default "&amp;I14,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>now boolean ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="11" t="s">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="C16" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
+      <c r="D16" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="L15" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6212,23 +7137,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D7D5FD-38DD-4197-A2A3-A47A33F19F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD700475-068F-4D40-BAD2-BBD8B085543D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -6264,10 +7189,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -6276,10 +7201,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -6287,11 +7212,11 @@
       <c r="E5" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -6304,99 +7229,100 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ｔarget_weights (</v>
+        <v>create table weights (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>82</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>id integer (　) primary key auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="27">
-        <v>100</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="I11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L14" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6404,10 +7330,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>111</v>
@@ -6418,107 +7344,86 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>weight double ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
-        <v>exercise_period date ,</v>
+      <c r="B13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="25" t="s">
+      <c r="B14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
-        <v>103</v>
+      <c r="J14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
-        <v>107</v>
+      <c r="L15" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6531,20 +7436,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593F5E13-3721-4EE1-B3E1-7EF93C8C2C14}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -6557,10 +7462,10 @@
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6574,13 +7479,13 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="35">
         <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>23</v>
@@ -6592,7 +7497,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
@@ -6604,7 +7509,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6618,22 +7523,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -6648,27 +7553,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+        <v>id integer  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6676,10 +7581,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>111</v>
@@ -6688,7 +7593,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -6696,7 +7601,7 @@
       <c r="J11" s="8"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mets float  not null default 1,</v>
+        <v>mets double  not null default 1,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6704,13 +7609,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -6718,7 +7623,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
@@ -6732,35 +7637,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6768,40 +7673,40 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6815,19 +7720,19 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -6863,7 +7768,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>26</v>
@@ -6875,7 +7780,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -6887,7 +7792,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -6903,22 +7808,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -6933,35 +7838,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6969,33 +7874,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varcher (100) auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7006,7 +7911,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>111</v>
@@ -7017,42 +7922,45 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="L12" s="24"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>momentum double ,</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7060,35 +7968,35 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7101,20 +8009,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F456C8F-3159-4777-92CF-2CFEC5F91E08}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -7127,10 +8035,10 @@
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7144,16 +8052,16 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="35">
         <v>45456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -7162,7 +8070,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -7174,7 +8082,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7188,22 +8096,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -7218,27 +8126,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+        <v>id integer  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7246,19 +8154,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -7266,7 +8174,7 @@
       <c r="J11" s="8"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>disease varcher  not null default 1,</v>
+        <v>disease varchar  not null default 1,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7274,13 +8182,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -7288,13 +8196,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>disease_money int (20) not null,</v>
+        <v>disease_money integer (20) not null,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7302,13 +8210,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -7316,7 +8224,11 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="29" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>standard double ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7324,35 +8236,35 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7360,40 +8272,40 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="L16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7407,19 +8319,19 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -7455,7 +8367,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>31</v>
@@ -7467,7 +8379,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -7479,7 +8391,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -7495,22 +8407,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -7525,35 +8437,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7561,33 +8473,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7595,13 +8507,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -7609,42 +8521,45 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="L12" s="24"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>income integer ,</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7652,35 +8567,35 @@
         <v>5</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7691,22 +8606,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23620929-0149-44C3-9509-0EB2616FEDE3}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
@@ -7719,10 +8634,10 @@
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7736,13 +8651,13 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="35">
         <v>45454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>33</v>
@@ -7754,10 +8669,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -7766,7 +8681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7780,29 +8695,25 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table target_savings (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7810,27 +8721,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>id int  primary key auto_increment,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(F10&lt;&gt;""," primary key","")&amp;IF(G10&lt;&gt;""," auto_increment","")&amp;IF(H10&lt;&gt;""," not null","")&amp;IF(I10&lt;&gt;""," default "&amp;I10,"")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>id integer  primary key auto_increment,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7838,33 +8749,33 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>89</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(F11&lt;&gt;""," primary key","")&amp;IF(G11&lt;&gt;""," auto_increment","")&amp;IF(H11&lt;&gt;""," not null","")&amp;IF(I11&lt;&gt;""," default "&amp;I11,"")&amp;IF(C7&lt;&gt;"",",","")</f>
+        <v>user_id varchar (100) auto_increment not null default 　</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7872,13 +8783,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7886,9 +8797,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8"/>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(F12&lt;&gt;""," primary key","")&amp;IF(G12&lt;&gt;""," auto_increment","")&amp;IF(H12&lt;&gt;""," not null","")&amp;IF(I12&lt;&gt;""," default "&amp;I12,"")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ｔarget_saving integer </v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27">
@@ -7896,13 +8807,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7910,110 +8821,138 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(F13&lt;&gt;""," primary key","")&amp;IF(G13&lt;&gt;""," auto_increment","")&amp;IF(H13&lt;&gt;""," not null","")&amp;IF(I13&lt;&gt;""," default "&amp;I13,"")&amp;IF(C9&lt;&gt;"",",","")</f>
-        <v>saving_period date ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27">
+        <v>period integer ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>138</v>
+      <c r="B14" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="E14" s="19">
+        <v>100</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" ht="27">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
-        <v>103</v>
+      <c r="B15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(F15&lt;&gt;""," primary key","")&amp;IF(G15&lt;&gt;""," auto_increment","")&amp;IF(H15&lt;&gt;""," not null","")&amp;IF(I15&lt;&gt;""," default "&amp;I15,"")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>now boolean ,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>106</v>
+      <c r="D16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" t="s">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="L18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8023,14 +8962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8039,7 +8970,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="57959670f370b0918e37c66dce896f05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c437e7777be8eb7caa4910741b755581" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -8219,14 +9150,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78084ED-CC39-486A-9667-2FE413EBFDD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905A5463-CD65-4552-9E4A-9D4C8A5A2777}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905A5463-CD65-4552-9E4A-9D4C8A5A2777}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA49B77-445D-4369-8B64-1696EE4F326C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA49B77-445D-4369-8B64-1696EE4F326C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78084ED-CC39-486A-9667-2FE413EBFDD8}"/>
 </file>